--- a/biology/Botanique/Potentilla_recta/Potentilla_recta.xlsx
+++ b/biology/Botanique/Potentilla_recta/Potentilla_recta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentille droite
 La Potentille droite (Potentilla recta L.), Potentille dressée ou Argentine droite, est une espèce de plantes à fleurs de la famille des Rosacées.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace dressée de 20 à 80 cm, rameuse vers le haut. Les fleurs à cinq pétales sont le plus souvent de couleur jaune pâle, mais peuvent être d'un jaune plus soutenu[1]. Elles sont disposées en corymbe ou en cyme[2]. Les feuilles ont de 5 à 8 folioles et sont fortement dentées. Des poils nombreux sont présents sur toute la plante, en partie crépus et généralement entremêlés de poils glanduleux au moins dans l'inflorescence.
-Sa floraison s'étend de mai à juillet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace dressée de 20 à 80 cm, rameuse vers le haut. Les fleurs à cinq pétales sont le plus souvent de couleur jaune pâle, mais peuvent être d'un jaune plus soutenu. Elles sont disposées en corymbe ou en cyme. Les feuilles ont de 5 à 8 folioles et sont fortement dentées. Des poils nombreux sont présents sur toute la plante, en partie crépus et généralement entremêlés de poils glanduleux au moins dans l'inflorescence.
+Sa floraison s'étend de mai à juillet.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelouses maigres, pelouses sablonneuses. C'est une plante souvent pionnière présente dans les lieux secs et arides. Présente jusqu'à 1700 mètres d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelouses maigres, pelouses sablonneuses. C'est une plante souvent pionnière présente dans les lieux secs et arides. Présente jusqu'à 1700 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France dans le Midi jusqu’à Paris et en Corse[2]. Europe médiane et méridionale, naturalisée en Amérique du Nord. Présente en Asie occidentale.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France dans le Midi jusqu’à Paris et en Corse. Europe médiane et méridionale, naturalisée en Amérique du Nord. Présente en Asie occidentale.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentilla adriatica Murb.
 Potentilla crassa Tausch ex Zimmeter
